--- a/330 iBugs.xlsx
+++ b/330 iBugs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="251">
   <si>
     <t>Issue ID</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Remove the heavy task from the event loop.</t>
   </si>
   <si>
-    <t>performance degradation</t>
+    <t>slow response</t>
   </si>
   <si>
     <t>Invoke device service</t>
@@ -85,6 +85,9 @@
     <t>Device failure</t>
   </si>
   <si>
+    <t>Use new device instead.</t>
+  </si>
+  <si>
     <t>Frequent requests</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t xml:space="preserve">Lack of consideration of some situations </t>
   </si>
   <si>
+    <t>Case by case</t>
+  </si>
+  <si>
     <t>pi4ioe5v9xxxx</t>
   </si>
   <si>
@@ -257,9 +263,6 @@
   </si>
   <si>
     <t>Incorrect execution status update</t>
-  </si>
-  <si>
-    <t>Case by case</t>
   </si>
   <si>
     <t>Lack of consideration of some situations</t>
@@ -876,9 +879,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,14 +895,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,33 +939,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -982,8 +986,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,23 +1009,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,13 +1032,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,19 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,13 +1128,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,133 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,6 +1241,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1255,6 +1263,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,10 +1299,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1289,7 +1310,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,32 +1333,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,10 +1346,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1361,34 +1358,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1400,98 +1397,98 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,7 +1505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1559,14 +1556,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1901,7 +1895,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -2004,12 +1998,14 @@
       <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="36" spans="1:6">
@@ -2017,13 +2013,13 @@
         <v>42947</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>14</v>
@@ -2037,13 +2033,13 @@
         <v>42927</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>14</v>
@@ -2057,16 +2053,16 @@
         <v>42921</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>10</v>
@@ -2077,7 +2073,7 @@
         <v>42912</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>17</v>
@@ -2097,19 +2093,19 @@
         <v>42911</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="36" spans="1:6">
@@ -2117,19 +2113,19 @@
         <v>42873</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="18" spans="1:6">
@@ -2137,7 +2133,7 @@
         <v>42847</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>17</v>
@@ -2157,13 +2153,13 @@
         <v>42814</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>14</v>
@@ -2177,19 +2173,19 @@
         <v>42781</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="36" spans="1:6">
@@ -2197,13 +2193,13 @@
         <v>42764</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>14</v>
@@ -2217,7 +2213,7 @@
         <v>42754</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>17</v>
@@ -2240,13 +2236,13 @@
         <v>42745</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>14</v>
@@ -2260,19 +2256,19 @@
         <v>42687</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="72" spans="1:6">
@@ -2280,13 +2276,13 @@
         <v>42663</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>14</v>
@@ -2300,13 +2296,13 @@
         <v>42653</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>14</v>
@@ -2320,13 +2316,13 @@
         <v>42623</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>14</v>
@@ -2340,13 +2336,13 @@
         <v>42568</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>19</v>
@@ -2360,19 +2356,19 @@
         <v>42554</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="18" spans="1:6">
@@ -2380,13 +2376,13 @@
         <v>42543</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>14</v>
@@ -2400,13 +2396,13 @@
         <v>42528</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>14</v>
@@ -2420,13 +2416,13 @@
         <v>42526</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>19</v>
@@ -2440,7 +2436,7 @@
         <v>42503</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>17</v>
@@ -2460,7 +2456,7 @@
         <v>42493</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>17</v>
@@ -2480,14 +2476,16 @@
         <v>42465</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E29" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>10</v>
@@ -2498,19 +2496,19 @@
         <v>42451</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="36" spans="1:6">
@@ -2518,33 +2516,33 @@
         <v>42444</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="36" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" spans="1:6">
       <c r="A32" s="19">
         <v>42390</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>9</v>
@@ -2558,19 +2556,19 @@
         <v>42356</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="36" spans="1:6">
@@ -2578,7 +2576,7 @@
         <v>42345</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>7</v>
@@ -2598,19 +2596,19 @@
         <v>42285</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="36" spans="1:6">
@@ -2618,12 +2616,14 @@
         <v>42281</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E36" s="21" t="s">
         <v>14</v>
       </c>
@@ -2636,14 +2636,16 @@
         <v>42258</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E37" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" s="21" t="s">
         <v>10</v>
@@ -2654,13 +2656,13 @@
         <v>42255</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>14</v>
@@ -2674,12 +2676,14 @@
         <v>42253</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E39" s="21" t="s">
         <v>19</v>
       </c>
@@ -2692,14 +2696,16 @@
         <v>42230</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E40" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
         <v>42222</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="36" spans="1:6">
@@ -2730,16 +2736,16 @@
         <v>42207</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>10</v>
@@ -2750,12 +2756,14 @@
         <v>42205</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E43" s="21" t="s">
         <v>14</v>
       </c>
@@ -2768,12 +2776,14 @@
         <v>42192</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E44" s="21" t="s">
         <v>19</v>
       </c>
@@ -2786,19 +2796,19 @@
         <v>42188</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="18" spans="1:6">
@@ -2806,7 +2816,7 @@
         <v>42139</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>17</v>
@@ -2826,12 +2836,14 @@
         <v>42138</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E47" s="21" t="s">
         <v>14</v>
       </c>
@@ -2844,16 +2856,16 @@
         <v>42090</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>10</v>
@@ -2864,12 +2876,14 @@
         <v>42085</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E49" s="21" t="s">
         <v>19</v>
       </c>
@@ -2882,17 +2896,19 @@
         <v>42076</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E50" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" s="6" customFormat="1" ht="72" spans="1:6">
@@ -2900,16 +2916,16 @@
         <v>41957</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>10</v>
@@ -2920,7 +2936,7 @@
         <v>41886</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>17</v>
@@ -2940,13 +2956,13 @@
         <v>41862</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>14</v>
@@ -2960,16 +2976,16 @@
         <v>41755</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>10</v>
@@ -2980,16 +2996,16 @@
         <v>41721</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>15</v>
@@ -3000,17 +3016,19 @@
         <v>41665</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E56" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="18" spans="1:6">
@@ -3018,13 +3036,13 @@
         <v>41576</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>19</v>
@@ -3038,13 +3056,13 @@
         <v>41570</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>14</v>
@@ -3058,14 +3076,16 @@
         <v>41564</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E59" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>10</v>
@@ -3076,13 +3096,13 @@
         <v>41560</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>14</v>
@@ -3096,12 +3116,14 @@
         <v>41507</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E61" s="21" t="s">
         <v>19</v>
       </c>
@@ -3114,13 +3136,13 @@
         <v>41416</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>14</v>
@@ -3134,12 +3156,14 @@
         <v>41258</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E63" s="21" t="s">
         <v>19</v>
       </c>
@@ -3152,12 +3176,14 @@
         <v>41187</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E64" s="21" t="s">
         <v>14</v>
       </c>
@@ -3170,12 +3196,14 @@
         <v>41140</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E65" s="21" t="s">
         <v>19</v>
       </c>
@@ -3188,13 +3216,13 @@
         <v>41041</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>19</v>
@@ -3208,16 +3236,16 @@
         <v>40985</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>10</v>
@@ -3228,13 +3256,13 @@
         <v>40818</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>19</v>
@@ -3248,12 +3276,14 @@
         <v>40814</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E69" s="21" t="s">
         <v>14</v>
       </c>
@@ -3266,17 +3296,19 @@
         <v>40810</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E70" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" ht="18" spans="1:6">
@@ -3284,7 +3316,7 @@
         <v>40771</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>17</v>
@@ -3304,12 +3336,14 @@
         <v>40717</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E72" s="21" t="s">
         <v>19</v>
       </c>
@@ -3322,16 +3356,16 @@
         <v>40669</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>10</v>
@@ -3342,19 +3376,19 @@
         <v>40631</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" ht="18" spans="1:6">
@@ -3362,7 +3396,7 @@
         <v>40588</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>17</v>
@@ -3382,16 +3416,16 @@
         <v>40552</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F76" s="21" t="s">
         <v>10</v>
@@ -3402,7 +3436,7 @@
         <v>40543</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>17</v>
@@ -3425,10 +3459,10 @@
         <v>20</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>14</v>
@@ -3442,7 +3476,7 @@
         <v>40517</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>17</v>
@@ -3462,19 +3496,19 @@
         <v>40487</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" s="4" customFormat="1" ht="18" spans="1:6">
@@ -3482,19 +3516,19 @@
         <v>40482</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" s="4" customFormat="1" ht="36" spans="1:6">
@@ -3502,12 +3536,14 @@
         <v>40434</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E82" s="21" t="s">
         <v>14</v>
       </c>
@@ -3520,19 +3556,19 @@
         <v>40408</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="18" spans="1:6">
@@ -3540,13 +3576,13 @@
         <v>40392</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>19</v>
@@ -3560,16 +3596,16 @@
         <v>40370</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>10</v>
@@ -3580,12 +3616,14 @@
         <v>40363</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E86" s="21" t="s">
         <v>14</v>
       </c>
@@ -3598,12 +3636,14 @@
         <v>40338</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E87" s="21" t="s">
         <v>14</v>
       </c>
@@ -3616,12 +3656,14 @@
         <v>40325</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E88" s="21" t="s">
         <v>19</v>
       </c>
@@ -3634,33 +3676,33 @@
         <v>40268</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="21" t="s">
+      <c r="E89" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" ht="18" spans="1:6">
-      <c r="A90" s="29">
+      <c r="A90" s="10">
         <v>40266</v>
       </c>
-      <c r="B90" s="29" t="s">
-        <v>120</v>
+      <c r="B90" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>14</v>
@@ -3670,16 +3712,18 @@
       </c>
     </row>
     <row r="91" ht="36" spans="1:6">
-      <c r="A91" s="29">
+      <c r="A91" s="10">
         <v>40233</v>
       </c>
-      <c r="B91" s="29" t="s">
-        <v>121</v>
+      <c r="B91" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E91" s="21" t="s">
         <v>19</v>
       </c>
@@ -3688,37 +3732,37 @@
       </c>
     </row>
     <row r="92" ht="18" spans="1:6">
-      <c r="A92" s="29">
+      <c r="A92" s="10">
         <v>40232</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>122</v>
+      <c r="B92" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="18" spans="1:6">
-      <c r="A93" s="29">
+      <c r="A93" s="10">
         <v>40225</v>
       </c>
-      <c r="B93" s="29" t="s">
-        <v>82</v>
+      <c r="B93" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>14</v>
@@ -3728,11 +3772,11 @@
       </c>
     </row>
     <row r="94" ht="18" spans="1:6">
-      <c r="A94" s="29">
+      <c r="A94" s="10">
         <v>40224</v>
       </c>
-      <c r="B94" s="29" t="s">
-        <v>123</v>
+      <c r="B94" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>17</v>
@@ -3748,16 +3792,18 @@
       </c>
     </row>
     <row r="95" ht="36" spans="1:6">
-      <c r="A95" s="29">
+      <c r="A95" s="10">
         <v>40217</v>
       </c>
-      <c r="B95" s="29" t="s">
-        <v>124</v>
+      <c r="B95" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D95" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E95" s="21" t="s">
         <v>14</v>
       </c>
@@ -3766,17 +3812,17 @@
       </c>
     </row>
     <row r="96" ht="18" spans="1:6">
-      <c r="A96" s="29">
+      <c r="A96" s="10">
         <v>40196</v>
       </c>
-      <c r="B96" s="29" t="s">
-        <v>125</v>
+      <c r="B96" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>19</v>
@@ -3786,16 +3832,18 @@
       </c>
     </row>
     <row r="97" ht="18" spans="1:6">
-      <c r="A97" s="29">
+      <c r="A97" s="10">
         <v>40192</v>
       </c>
-      <c r="B97" s="29" t="s">
-        <v>126</v>
+      <c r="B97" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E97" s="21" t="s">
         <v>14</v>
       </c>
@@ -3804,11 +3852,11 @@
       </c>
     </row>
     <row r="98" ht="36" spans="1:6">
-      <c r="A98" s="29">
+      <c r="A98" s="10">
         <v>40184</v>
       </c>
-      <c r="B98" s="29" t="s">
-        <v>127</v>
+      <c r="B98" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>7</v>
@@ -3824,16 +3872,18 @@
       </c>
     </row>
     <row r="99" ht="18" spans="1:6">
-      <c r="A99" s="29">
+      <c r="A99" s="10">
         <v>40134</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>51</v>
+      <c r="B99" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E99" s="21" t="s">
         <v>19</v>
       </c>
@@ -3842,369 +3892,377 @@
       </c>
     </row>
     <row r="100" ht="36" spans="1:6">
-      <c r="A100" s="29">
+      <c r="A100" s="10">
         <v>40072</v>
       </c>
-      <c r="B100" s="29" t="s">
-        <v>129</v>
+      <c r="B100" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="C100" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" ht="36" spans="1:6">
+      <c r="A101" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" ht="36" spans="1:6">
+      <c r="A102" s="10">
+        <v>40008</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" ht="36" spans="1:6">
+      <c r="A103" s="10">
+        <v>39977</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" ht="36" spans="1:6">
+      <c r="A104" s="10">
+        <v>39976</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" ht="36" spans="1:6">
+      <c r="A105" s="10">
+        <v>39968</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" ht="18" spans="1:6">
+      <c r="A106" s="10">
+        <v>39937</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" ht="36" spans="1:6">
-      <c r="A101" s="29">
-        <v>40026</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" ht="36" spans="1:6">
-      <c r="A102" s="29">
-        <v>40008</v>
-      </c>
-      <c r="B102" s="29" t="s">
+      <c r="C106" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="1:6">
+      <c r="A107" s="10">
+        <v>39935</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" ht="36" spans="1:6">
+      <c r="A108" s="10">
+        <v>39930</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" ht="18" spans="1:6">
+      <c r="A109" s="10">
+        <v>39916</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" ht="18" spans="1:6">
+      <c r="A110" s="10">
+        <v>39903</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" ht="18" spans="1:6">
+      <c r="A111" s="10">
+        <v>39876</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" s="11" customFormat="1" ht="18" spans="1:6">
+      <c r="A112" s="10">
+        <v>39875</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" ht="18" spans="1:6">
+      <c r="A113" s="10">
+        <v>39863</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" ht="36" spans="1:6">
-      <c r="A103" s="29">
-        <v>39977</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="20" t="s">
+      <c r="D113" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" ht="36" spans="1:6">
+      <c r="A114" s="10">
+        <v>39860</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" ht="36" spans="1:6">
-      <c r="A104" s="29">
-        <v>39976</v>
-      </c>
-      <c r="B104" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" ht="36" spans="1:6">
-      <c r="A105" s="29">
-        <v>39968</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="21" t="s">
+      <c r="D114" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" ht="36" spans="1:6">
+      <c r="A115" s="10">
+        <v>39848</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" ht="18" spans="1:6">
+      <c r="A116" s="10">
+        <v>39847</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" ht="36" spans="1:6">
+      <c r="A117" s="10">
+        <v>39827</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="106" ht="18" spans="1:6">
-      <c r="A106" s="29">
-        <v>39937</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" ht="18" spans="1:6">
-      <c r="A107" s="29">
-        <v>39935</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" ht="36" spans="1:6">
-      <c r="A108" s="29">
-        <v>39930</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" ht="18" spans="1:6">
-      <c r="A109" s="29">
-        <v>39916</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" ht="18" spans="1:6">
-      <c r="A110" s="29">
-        <v>39903</v>
-      </c>
-      <c r="B110" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" ht="18" spans="1:6">
-      <c r="A111" s="29">
-        <v>39876</v>
-      </c>
-      <c r="B111" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" s="11" customFormat="1" ht="18" spans="1:6">
-      <c r="A112" s="29">
-        <v>39875</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D112" s="20"/>
-      <c r="E112" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" ht="18" spans="1:6">
-      <c r="A113" s="29">
-        <v>39863</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113" s="20"/>
-      <c r="E113" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" ht="36" spans="1:6">
-      <c r="A114" s="29">
-        <v>39860</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" ht="36" spans="1:6">
-      <c r="A115" s="29">
-        <v>39848</v>
-      </c>
-      <c r="B115" s="29" t="s">
+      <c r="F117" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" ht="18" spans="1:6">
-      <c r="A116" s="29">
-        <v>39847</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" ht="36" spans="1:6">
-      <c r="A117" s="29">
-        <v>39827</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="118" ht="72" spans="1:6">
-      <c r="A118" s="29">
+      <c r="A118" s="10">
         <v>39817</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>144</v>
+      <c r="B118" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>9</v>
@@ -4214,35 +4272,35 @@
       </c>
     </row>
     <row r="119" ht="36" spans="1:6">
-      <c r="A119" s="29">
+      <c r="A119" s="10">
         <v>39788</v>
       </c>
-      <c r="B119" s="29" t="s">
-        <v>103</v>
+      <c r="B119" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" s="32"/>
+        <v>147</v>
+      </c>
+      <c r="E119" s="31"/>
       <c r="F119" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:6">
-      <c r="A120" s="29">
+      <c r="A120" s="10">
         <v>39778</v>
       </c>
-      <c r="B120" s="29" t="s">
-        <v>147</v>
+      <c r="B120" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E120" s="21" t="s">
         <v>19</v>
@@ -4252,11 +4310,11 @@
       </c>
     </row>
     <row r="121" ht="36" spans="1:6">
-      <c r="A121" s="29">
+      <c r="A121" s="10">
         <v>39598</v>
       </c>
-      <c r="B121" s="29" t="s">
-        <v>148</v>
+      <c r="B121" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>7</v>
@@ -4272,85 +4330,89 @@
       </c>
     </row>
     <row r="122" s="11" customFormat="1" ht="18" spans="1:6">
-      <c r="A122" s="29">
+      <c r="A122" s="10">
         <v>39592</v>
       </c>
-      <c r="B122" s="29" t="s">
-        <v>51</v>
+      <c r="B122" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D122" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E122" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F122" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="123" ht="36" spans="1:6">
-      <c r="A123" s="29">
+      <c r="A123" s="10">
         <v>39565</v>
       </c>
-      <c r="B123" s="29" t="s">
-        <v>149</v>
+      <c r="B123" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="C123" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" s="31"/>
+      <c r="F123" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" ht="36" spans="1:6">
+      <c r="A124" s="10">
+        <v>39349</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D123" s="20"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" ht="36" spans="1:6">
-      <c r="A124" s="29">
-        <v>39349</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="D124" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F124" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" ht="18" spans="1:6">
-      <c r="A125" s="29">
+      <c r="A125" s="10">
         <v>39278</v>
       </c>
-      <c r="B125" s="29" t="s">
-        <v>47</v>
+      <c r="B125" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" ht="36" spans="1:6">
-      <c r="A126" s="29">
+      <c r="A126" s="10">
         <v>39259</v>
       </c>
-      <c r="B126" s="29" t="s">
-        <v>151</v>
+      <c r="B126" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>7</v>
@@ -4366,30 +4428,34 @@
       </c>
     </row>
     <row r="127" ht="36" spans="1:6">
-      <c r="A127" s="29">
+      <c r="A127" s="10">
         <v>39182</v>
       </c>
-      <c r="B127" s="29" t="s">
-        <v>76</v>
+      <c r="B127" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D127" s="20"/>
+        <v>134</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
     </row>
     <row r="128" ht="18" spans="1:6">
-      <c r="A128" s="29">
+      <c r="A128" s="10">
         <v>39181</v>
       </c>
-      <c r="B128" s="29" t="s">
-        <v>152</v>
+      <c r="B128" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D128" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E128" s="21" t="s">
         <v>19</v>
       </c>
@@ -4398,16 +4464,18 @@
       </c>
     </row>
     <row r="129" ht="18" spans="1:6">
-      <c r="A129" s="29">
+      <c r="A129" s="10">
         <v>39116</v>
       </c>
-      <c r="B129" s="29" t="s">
-        <v>153</v>
+      <c r="B129" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D129" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E129" s="21" t="s">
         <v>19</v>
       </c>
@@ -4416,11 +4484,11 @@
       </c>
     </row>
     <row r="130" ht="36" spans="1:6">
-      <c r="A130" s="29">
+      <c r="A130" s="10">
         <v>39099</v>
       </c>
-      <c r="B130" s="29" t="s">
-        <v>154</v>
+      <c r="B130" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>12</v>
@@ -4436,16 +4504,18 @@
       </c>
     </row>
     <row r="131" ht="18" spans="1:6">
-      <c r="A131" s="29">
+      <c r="A131" s="10">
         <v>39013</v>
       </c>
-      <c r="B131" s="29" t="s">
-        <v>155</v>
+      <c r="B131" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D131" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E131" s="21" t="s">
         <v>19</v>
       </c>
@@ -4454,241 +4524,257 @@
       </c>
     </row>
     <row r="132" ht="18" spans="1:6">
-      <c r="A132" s="29">
+      <c r="A132" s="10">
         <v>39010</v>
       </c>
-      <c r="B132" s="29" t="s">
-        <v>156</v>
+      <c r="B132" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" ht="18" spans="1:6">
+      <c r="A133" s="10">
+        <v>39007</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" ht="18" spans="1:6">
+      <c r="A134" s="10">
+        <v>39006</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" ht="18" spans="1:6">
+      <c r="A135" s="10">
+        <v>38981</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" ht="36" spans="1:6">
+      <c r="A136" s="10">
+        <v>38919</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" ht="36" spans="1:6">
+      <c r="A137" s="10">
+        <v>38914</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" ht="18" spans="1:6">
+      <c r="A138" s="10">
+        <v>38893</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" ht="18" spans="1:6">
+      <c r="A139" s="10">
+        <v>38889</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" ht="36" spans="1:6">
+      <c r="A140" s="10">
+        <v>38885</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" ht="36" spans="1:6">
+      <c r="A141" s="10">
+        <v>38834</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" ht="36" spans="1:6">
+      <c r="A142" s="10">
+        <v>38824</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" ht="18" spans="1:6">
+      <c r="A143" s="10">
+        <v>38805</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" ht="18" spans="1:6">
+      <c r="A144" s="10">
+        <v>38752</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" ht="18" spans="1:6">
-      <c r="A133" s="29">
-        <v>39007</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" ht="18" spans="1:6">
-      <c r="A134" s="29">
-        <v>39006</v>
-      </c>
-      <c r="B134" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D134" s="20"/>
-      <c r="E134" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" ht="18" spans="1:6">
-      <c r="A135" s="29">
-        <v>38981</v>
-      </c>
-      <c r="B135" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D135" s="20"/>
-      <c r="E135" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" ht="36" spans="1:6">
-      <c r="A136" s="29">
-        <v>38919</v>
-      </c>
-      <c r="B136" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F136" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" ht="36" spans="1:6">
-      <c r="A137" s="29">
-        <v>38914</v>
-      </c>
-      <c r="B137" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="20"/>
-      <c r="E137" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" ht="18" spans="1:6">
-      <c r="A138" s="29">
-        <v>38893</v>
-      </c>
-      <c r="B138" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D138" s="20"/>
-      <c r="E138" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" ht="18" spans="1:6">
-      <c r="A139" s="29">
-        <v>38889</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D139" s="20"/>
-      <c r="E139" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" ht="36" spans="1:6">
-      <c r="A140" s="29">
-        <v>38885</v>
-      </c>
-      <c r="B140" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D140" s="20"/>
-      <c r="E140" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" ht="36" spans="1:6">
-      <c r="A141" s="29">
-        <v>38834</v>
-      </c>
-      <c r="B141" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D141" s="20"/>
-      <c r="E141" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" ht="36" spans="1:6">
-      <c r="A142" s="29">
-        <v>38824</v>
-      </c>
-      <c r="B142" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" ht="18" spans="1:6">
-      <c r="A143" s="29">
-        <v>38805</v>
-      </c>
-      <c r="B143" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D143" s="20"/>
-      <c r="E143" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" ht="18" spans="1:6">
-      <c r="A144" s="29">
-        <v>38752</v>
-      </c>
-      <c r="B144" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D144" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>14</v>
@@ -4698,77 +4784,77 @@
       </c>
     </row>
     <row r="145" ht="18" spans="1:6">
-      <c r="A145" s="29">
+      <c r="A145" s="10">
         <v>38708</v>
       </c>
-      <c r="B145" s="29" t="s">
-        <v>162</v>
+      <c r="B145" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F145" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" ht="18" spans="1:6">
+      <c r="A146" s="10">
+        <v>38661</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="146" ht="18" spans="1:6">
-      <c r="A146" s="29">
-        <v>38661</v>
-      </c>
-      <c r="B146" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" s="21" t="s">
+      <c r="E146" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" ht="18" spans="1:6">
+      <c r="A147" s="10">
+        <v>38644</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E146" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="147" ht="18" spans="1:6">
-      <c r="A147" s="29">
-        <v>38644</v>
-      </c>
-      <c r="B147" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="D147" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" ht="36" spans="1:6">
-      <c r="A148" s="29">
+      <c r="A148" s="10">
         <v>38607</v>
       </c>
-      <c r="B148" s="29" t="s">
-        <v>164</v>
+      <c r="B148" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>14</v>
@@ -4778,11 +4864,11 @@
       </c>
     </row>
     <row r="149" ht="18" spans="1:6">
-      <c r="A149" s="29">
+      <c r="A149" s="10">
         <v>38544</v>
       </c>
-      <c r="B149" s="29" t="s">
-        <v>165</v>
+      <c r="B149" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>17</v>
@@ -4798,11 +4884,11 @@
       </c>
     </row>
     <row r="150" ht="18" spans="1:6">
-      <c r="A150" s="29">
+      <c r="A150" s="10">
         <v>38512</v>
       </c>
-      <c r="B150" s="29" t="s">
-        <v>166</v>
+      <c r="B150" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>17</v>
@@ -4818,16 +4904,18 @@
       </c>
     </row>
     <row r="151" ht="18" spans="1:6">
-      <c r="A151" s="29">
+      <c r="A151" s="10">
         <v>38501</v>
       </c>
-      <c r="B151" s="29" t="s">
-        <v>167</v>
+      <c r="B151" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D151" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E151" s="21" t="s">
         <v>19</v>
       </c>
@@ -4836,11 +4924,11 @@
       </c>
     </row>
     <row r="152" ht="36" spans="1:6">
-      <c r="A152" s="29">
+      <c r="A152" s="10">
         <v>38493</v>
       </c>
-      <c r="B152" s="29" t="s">
-        <v>150</v>
+      <c r="B152" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>12</v>
@@ -4856,17 +4944,17 @@
       </c>
     </row>
     <row r="153" ht="18" spans="1:6">
-      <c r="A153" s="29">
+      <c r="A153" s="10">
         <v>38455</v>
       </c>
-      <c r="B153" s="29" t="s">
-        <v>161</v>
+      <c r="B153" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E153" s="21" t="s">
         <v>14</v>
@@ -4876,16 +4964,18 @@
       </c>
     </row>
     <row r="154" ht="18" spans="1:6">
-      <c r="A154" s="29">
+      <c r="A154" s="10">
         <v>38393</v>
       </c>
-      <c r="B154" s="29" t="s">
-        <v>168</v>
+      <c r="B154" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D154" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E154" s="21" t="s">
         <v>19</v>
       </c>
@@ -4894,31 +4984,31 @@
       </c>
     </row>
     <row r="155" ht="18" spans="1:6">
-      <c r="A155" s="29">
+      <c r="A155" s="10">
         <v>38379</v>
       </c>
-      <c r="B155" s="29" t="s">
-        <v>110</v>
+      <c r="B155" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" ht="36" spans="1:6">
-      <c r="A156" s="29">
+      <c r="A156" s="10">
         <v>38375</v>
       </c>
-      <c r="B156" s="29" t="s">
-        <v>169</v>
+      <c r="B156" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>7</v>
@@ -4934,16 +5024,18 @@
       </c>
     </row>
     <row r="157" ht="18" spans="1:6">
-      <c r="A157" s="29">
+      <c r="A157" s="10">
         <v>38339</v>
       </c>
-      <c r="B157" s="29" t="s">
-        <v>33</v>
+      <c r="B157" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D157" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E157" s="21" t="s">
         <v>19</v>
       </c>
@@ -4952,16 +5044,18 @@
       </c>
     </row>
     <row r="158" ht="36" spans="1:6">
-      <c r="A158" s="29">
+      <c r="A158" s="10">
         <v>38321</v>
       </c>
-      <c r="B158" s="29" t="s">
-        <v>170</v>
+      <c r="B158" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D158" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E158" s="21" t="s">
         <v>14</v>
       </c>
@@ -4970,11 +5064,11 @@
       </c>
     </row>
     <row r="159" ht="18" spans="1:6">
-      <c r="A159" s="29">
+      <c r="A159" s="10">
         <v>38291</v>
       </c>
-      <c r="B159" s="29" t="s">
-        <v>171</v>
+      <c r="B159" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>17</v>
@@ -4990,37 +5084,37 @@
       </c>
     </row>
     <row r="160" ht="36" spans="1:6">
-      <c r="A160" s="29">
+      <c r="A160" s="10">
         <v>38270</v>
       </c>
-      <c r="B160" s="29" t="s">
-        <v>70</v>
+      <c r="B160" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D160" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" ht="36" spans="1:6">
+      <c r="A161" s="10">
+        <v>38262</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C161" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E160" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" ht="36" spans="1:6">
-      <c r="A161" s="29">
-        <v>38262</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="D161" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E161" s="21" t="s">
         <v>14</v>
@@ -5030,56 +5124,58 @@
       </c>
     </row>
     <row r="162" s="12" customFormat="1" ht="18" spans="1:6">
-      <c r="A162" s="29">
+      <c r="A162" s="10">
         <v>38247</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" ht="36" spans="1:6">
+      <c r="A163" s="10">
+        <v>38218</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C162" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D162" s="20"/>
-      <c r="E162" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" ht="36" spans="1:6">
-      <c r="A163" s="29">
-        <v>38218</v>
-      </c>
-      <c r="B163" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="F163" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:6">
-      <c r="A164" s="29">
+      <c r="A164" s="10">
         <v>38198</v>
       </c>
-      <c r="B164" s="29" t="s">
+      <c r="B164" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D164" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C164" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="E164" s="21" t="s">
         <v>14</v>
       </c>
@@ -5088,11 +5184,11 @@
       </c>
     </row>
     <row r="165" ht="18" spans="1:6">
-      <c r="A165" s="29">
+      <c r="A165" s="10">
         <v>38193</v>
       </c>
-      <c r="B165" s="29" t="s">
-        <v>119</v>
+      <c r="B165" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>17</v>
@@ -5108,36 +5204,38 @@
       </c>
     </row>
     <row r="166" ht="36" spans="1:6">
-      <c r="A166" s="29">
+      <c r="A166" s="10">
         <v>38186</v>
       </c>
-      <c r="B166" s="29" t="s">
-        <v>42</v>
+      <c r="B166" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F166" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="167" ht="18" spans="1:6">
-      <c r="A167" s="29">
+      <c r="A167" s="10">
         <v>38151</v>
       </c>
-      <c r="B167" s="29" t="s">
-        <v>173</v>
+      <c r="B167" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D167" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E167" s="21" t="s">
         <v>19</v>
       </c>
@@ -5146,11 +5244,11 @@
       </c>
     </row>
     <row r="168" ht="18" spans="1:6">
-      <c r="A168" s="29">
+      <c r="A168" s="10">
         <v>38147</v>
       </c>
-      <c r="B168" s="29" t="s">
-        <v>94</v>
+      <c r="B168" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>17</v>
@@ -5166,17 +5264,17 @@
       </c>
     </row>
     <row r="169" ht="36" spans="1:6">
-      <c r="A169" s="29">
+      <c r="A169" s="10">
         <v>38136</v>
       </c>
-      <c r="B169" s="29" t="s">
-        <v>174</v>
+      <c r="B169" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E169" s="21" t="s">
         <v>14</v>
@@ -5186,35 +5284,37 @@
       </c>
     </row>
     <row r="170" ht="18" spans="1:6">
-      <c r="A170" s="29">
+      <c r="A170" s="10">
         <v>38116</v>
       </c>
-      <c r="B170" s="29" t="s">
-        <v>175</v>
+      <c r="B170" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D170" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E170" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F170" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="171" ht="36" spans="1:6">
-      <c r="A171" s="29">
+      <c r="A171" s="10">
         <v>38084</v>
       </c>
-      <c r="B171" s="29" t="s">
-        <v>40</v>
+      <c r="B171" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>14</v>
@@ -5224,16 +5324,18 @@
       </c>
     </row>
     <row r="172" ht="36" spans="1:6">
-      <c r="A172" s="29">
+      <c r="A172" s="10">
         <v>38080</v>
       </c>
-      <c r="B172" s="29" t="s">
-        <v>153</v>
+      <c r="B172" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D172" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E172" s="21" t="s">
         <v>19</v>
       </c>
@@ -5242,17 +5344,17 @@
       </c>
     </row>
     <row r="173" ht="36" spans="1:6">
-      <c r="A173" s="29">
+      <c r="A173" s="10">
         <v>38058</v>
       </c>
-      <c r="B173" s="29" t="s">
-        <v>175</v>
+      <c r="B173" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E173" s="21" t="s">
         <v>14</v>
@@ -5262,16 +5364,18 @@
       </c>
     </row>
     <row r="174" ht="18" spans="1:6">
-      <c r="A174" s="29">
+      <c r="A174" s="10">
         <v>38024</v>
       </c>
-      <c r="B174" s="29" t="s">
-        <v>176</v>
+      <c r="B174" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D174" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E174" s="21" t="s">
         <v>19</v>
       </c>
@@ -5280,37 +5384,37 @@
       </c>
     </row>
     <row r="175" ht="36" spans="1:6">
-      <c r="A175" s="29">
+      <c r="A175" s="10">
         <v>38013</v>
       </c>
-      <c r="B175" s="29" t="s">
-        <v>42</v>
+      <c r="B175" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" ht="36" spans="1:6">
-      <c r="A176" s="29">
+      <c r="A176" s="10">
         <v>38010</v>
       </c>
-      <c r="B176" s="29" t="s">
-        <v>177</v>
+      <c r="B176" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E176" s="21" t="s">
         <v>14</v>
@@ -5320,11 +5424,11 @@
       </c>
     </row>
     <row r="177" ht="18" spans="1:6">
-      <c r="A177" s="29">
+      <c r="A177" s="10">
         <v>37971</v>
       </c>
-      <c r="B177" s="29" t="s">
-        <v>178</v>
+      <c r="B177" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="C177" s="20" t="s">
         <v>17</v>
@@ -5340,37 +5444,37 @@
       </c>
     </row>
     <row r="178" ht="18" spans="1:6">
-      <c r="A178" s="29">
+      <c r="A178" s="10">
         <v>37969</v>
       </c>
-      <c r="B178" s="29" t="s">
-        <v>71</v>
+      <c r="B178" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D178" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" ht="18" spans="1:6">
+      <c r="A179" s="10">
+        <v>37953</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E178" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" ht="18" spans="1:6">
-      <c r="A179" s="29">
-        <v>37953</v>
-      </c>
-      <c r="B179" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D179" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E179" s="21" t="s">
         <v>14</v>
@@ -5380,248 +5484,258 @@
       </c>
     </row>
     <row r="180" ht="18" spans="1:6">
-      <c r="A180" s="29">
+      <c r="A180" s="10">
         <v>37943</v>
       </c>
-      <c r="B180" s="29" t="s">
-        <v>180</v>
+      <c r="B180" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D180" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" ht="54" spans="1:6">
+      <c r="A181" s="10">
+        <v>37857</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F181" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182" ht="36" spans="1:6">
+      <c r="A182" s="10">
+        <v>37851</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E182" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" ht="36" spans="1:6">
+      <c r="A183" s="10">
+        <v>37844</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" ht="18" spans="1:6">
+      <c r="A184" s="10">
+        <v>37791</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" ht="36" spans="1:6">
+      <c r="A185" s="10">
+        <v>37744</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" ht="18" spans="1:6">
+      <c r="A186" s="10">
+        <v>37714</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" ht="36" spans="1:6">
+      <c r="A187" s="10">
+        <v>37704</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" ht="36" spans="1:6">
+      <c r="A188" s="10">
+        <v>37689</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" ht="54" spans="1:6">
+      <c r="A189" s="10">
+        <v>37681</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" ht="18" spans="1:6">
+      <c r="A190" s="10">
+        <v>37662</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F190" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" ht="36" spans="1:6">
+      <c r="A191" s="10">
+        <v>37661</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" ht="18" spans="1:6">
+      <c r="A192" s="10">
+        <v>37658</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C192" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E180" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" ht="54" spans="1:6">
-      <c r="A181" s="29">
-        <v>37857</v>
-      </c>
-      <c r="B181" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F181" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" ht="36" spans="1:6">
-      <c r="A182" s="29">
-        <v>37851</v>
-      </c>
-      <c r="B182" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" ht="36" spans="1:6">
-      <c r="A183" s="29">
-        <v>37844</v>
-      </c>
-      <c r="B183" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D183" s="20"/>
-      <c r="E183" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F183" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" ht="18" spans="1:6">
-      <c r="A184" s="29">
-        <v>37791</v>
-      </c>
-      <c r="B184" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D184" s="20"/>
-      <c r="E184" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" ht="36" spans="1:6">
-      <c r="A185" s="29">
-        <v>37744</v>
-      </c>
-      <c r="B185" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" ht="18" spans="1:6">
-      <c r="A186" s="29">
-        <v>37714</v>
-      </c>
-      <c r="B186" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D186" s="20"/>
-      <c r="E186" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" ht="36" spans="1:6">
-      <c r="A187" s="29">
-        <v>37704</v>
-      </c>
-      <c r="B187" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D187" s="20"/>
-      <c r="E187" s="21" t="s">
+      <c r="D192" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F187" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" ht="36" spans="1:6">
-      <c r="A188" s="29">
-        <v>37689</v>
-      </c>
-      <c r="B188" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D188" s="20"/>
-      <c r="E188" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" ht="54" spans="1:6">
-      <c r="A189" s="29">
-        <v>37681</v>
-      </c>
-      <c r="B189" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" ht="18" spans="1:6">
-      <c r="A190" s="29">
-        <v>37662</v>
-      </c>
-      <c r="B190" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E190" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F190" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" ht="36" spans="1:6">
-      <c r="A191" s="29">
-        <v>37661</v>
-      </c>
-      <c r="B191" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C191" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D191" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E191" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F191" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" ht="18" spans="1:6">
-      <c r="A192" s="29">
-        <v>37658</v>
-      </c>
-      <c r="B192" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="E192" s="21" t="s">
         <v>14</v>
       </c>
@@ -5630,29 +5744,31 @@
       </c>
     </row>
     <row r="193" ht="36" spans="1:6">
-      <c r="A193" s="29">
+      <c r="A193" s="10">
         <v>38604</v>
       </c>
-      <c r="B193" s="29" t="s">
-        <v>162</v>
+      <c r="B193" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D193" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E193" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" ht="18" spans="1:6">
-      <c r="A194" s="29">
+      <c r="A194" s="10">
         <v>37600</v>
       </c>
-      <c r="B194" s="29" t="s">
-        <v>186</v>
+      <c r="B194" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="C194" s="20" t="s">
         <v>17</v>
@@ -5668,17 +5784,17 @@
       </c>
     </row>
     <row r="195" ht="18" spans="1:6">
-      <c r="A195" s="29">
+      <c r="A195" s="10">
         <v>37573</v>
       </c>
-      <c r="B195" s="29" t="s">
-        <v>140</v>
+      <c r="B195" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E195" s="21" t="s">
         <v>14</v>
@@ -5688,17 +5804,17 @@
       </c>
     </row>
     <row r="196" ht="36" spans="1:6">
-      <c r="A196" s="29">
+      <c r="A196" s="10">
         <v>37568</v>
       </c>
-      <c r="B196" s="29" t="s">
-        <v>140</v>
+      <c r="B196" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E196" s="21" t="s">
         <v>14</v>
@@ -5708,17 +5824,17 @@
       </c>
     </row>
     <row r="197" ht="18" spans="1:6">
-      <c r="A197" s="29">
+      <c r="A197" s="10">
         <v>37563</v>
       </c>
-      <c r="B197" s="29" t="s">
-        <v>187</v>
+      <c r="B197" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E197" s="21" t="s">
         <v>19</v>
@@ -5728,17 +5844,17 @@
       </c>
     </row>
     <row r="198" ht="18" spans="1:6">
-      <c r="A198" s="29">
+      <c r="A198" s="10">
         <v>37544</v>
       </c>
-      <c r="B198" s="29" t="s">
-        <v>188</v>
+      <c r="B198" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>14</v>
@@ -5748,16 +5864,18 @@
       </c>
     </row>
     <row r="199" ht="18" spans="1:6">
-      <c r="A199" s="29">
+      <c r="A199" s="10">
         <v>37537</v>
       </c>
-      <c r="B199" s="29" t="s">
-        <v>51</v>
+      <c r="B199" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D199" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E199" s="21" t="s">
         <v>19</v>
       </c>
@@ -5766,16 +5884,18 @@
       </c>
     </row>
     <row r="200" ht="36" spans="1:6">
-      <c r="A200" s="29">
+      <c r="A200" s="10">
         <v>37522</v>
       </c>
-      <c r="B200" s="29" t="s">
-        <v>98</v>
+      <c r="B200" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D200" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E200" s="21" t="s">
         <v>19</v>
       </c>
@@ -5784,11 +5904,11 @@
       </c>
     </row>
     <row r="201" ht="18" spans="1:6">
-      <c r="A201" s="29">
+      <c r="A201" s="10">
         <v>37521</v>
       </c>
-      <c r="B201" s="29" t="s">
-        <v>138</v>
+      <c r="B201" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C201" s="20" t="s">
         <v>17</v>
@@ -5804,11 +5924,11 @@
       </c>
     </row>
     <row r="202" ht="36" spans="1:6">
-      <c r="A202" s="29">
+      <c r="A202" s="10">
         <v>37517</v>
       </c>
-      <c r="B202" s="29" t="s">
-        <v>90</v>
+      <c r="B202" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C202" s="20" t="s">
         <v>12</v>
@@ -5824,17 +5944,17 @@
       </c>
     </row>
     <row r="203" ht="18" spans="1:6">
-      <c r="A203" s="29">
+      <c r="A203" s="10">
         <v>37484</v>
       </c>
-      <c r="B203" s="29" t="s">
-        <v>189</v>
+      <c r="B203" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>14</v>
@@ -5844,36 +5964,38 @@
       </c>
     </row>
     <row r="204" ht="36" spans="1:6">
-      <c r="A204" s="29">
+      <c r="A204" s="10">
         <v>37466</v>
       </c>
-      <c r="B204" s="29" t="s">
-        <v>161</v>
+      <c r="B204" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" ht="18" spans="1:6">
-      <c r="A205" s="29">
+      <c r="A205" s="10">
         <v>37449</v>
       </c>
-      <c r="B205" s="29" t="s">
-        <v>55</v>
+      <c r="B205" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D205" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E205" s="21" t="s">
         <v>14</v>
       </c>
@@ -5882,17 +6004,17 @@
       </c>
     </row>
     <row r="206" ht="36" spans="1:6">
-      <c r="A206" s="29">
+      <c r="A206" s="10">
         <v>37381</v>
       </c>
-      <c r="B206" s="29" t="s">
-        <v>185</v>
+      <c r="B206" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>14</v>
@@ -5902,17 +6024,17 @@
       </c>
     </row>
     <row r="207" ht="18" spans="1:6">
-      <c r="A207" s="29">
+      <c r="A207" s="10">
         <v>37333</v>
       </c>
-      <c r="B207" s="29" t="s">
-        <v>190</v>
+      <c r="B207" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E207" s="21" t="s">
         <v>14</v>
@@ -5922,49 +6044,51 @@
       </c>
     </row>
     <row r="208" ht="36" spans="1:6">
-      <c r="A208" s="29">
+      <c r="A208" s="10">
         <v>37332</v>
       </c>
-      <c r="B208" s="29" t="s">
-        <v>191</v>
+      <c r="B208" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D208" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E208" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F208" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="209" ht="18" spans="1:6">
-      <c r="A209" s="29">
+      <c r="A209" s="10">
         <v>37329</v>
       </c>
-      <c r="B209" s="29" t="s">
-        <v>192</v>
+      <c r="B209" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E209" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" ht="18" spans="1:6">
-      <c r="A210" s="29">
+      <c r="A210" s="10">
         <v>37328</v>
       </c>
-      <c r="B210" s="29" t="s">
-        <v>193</v>
+      <c r="B210" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C210" s="20" t="s">
         <v>17</v>
@@ -5980,16 +6104,18 @@
       </c>
     </row>
     <row r="211" ht="18" spans="1:6">
-      <c r="A211" s="29">
+      <c r="A211" s="10">
         <v>37321</v>
       </c>
-      <c r="B211" s="29" t="s">
-        <v>181</v>
+      <c r="B211" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D211" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E211" s="21" t="s">
         <v>19</v>
       </c>
@@ -5998,71 +6124,71 @@
       </c>
     </row>
     <row r="212" ht="36" spans="1:6">
-      <c r="A212" s="29">
+      <c r="A212" s="10">
         <v>37319</v>
       </c>
-      <c r="B212" s="29" t="s">
-        <v>194</v>
+      <c r="B212" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C212" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E212" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" ht="18" spans="1:6">
+      <c r="A213" s="10">
+        <v>37314</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E213" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" ht="18" spans="1:6">
+      <c r="A214" s="10">
+        <v>37310</v>
+      </c>
+      <c r="B214" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D212" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E212" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" ht="18" spans="1:6">
-      <c r="A213" s="29">
-        <v>37314</v>
-      </c>
-      <c r="B213" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C213" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D213" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E213" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F213" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" ht="18" spans="1:6">
-      <c r="A214" s="29">
-        <v>37310</v>
-      </c>
-      <c r="B214" s="29" t="s">
-        <v>47</v>
-      </c>
       <c r="C214" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E214" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" ht="36" spans="1:6">
-      <c r="A215" s="29">
+      <c r="A215" s="10">
         <v>37305</v>
       </c>
-      <c r="B215" s="29" t="s">
-        <v>196</v>
+      <c r="B215" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="C215" s="20" t="s">
         <v>7</v>
@@ -6078,17 +6204,17 @@
       </c>
     </row>
     <row r="216" ht="18" spans="1:6">
-      <c r="A216" s="29">
+      <c r="A216" s="10">
         <v>37296</v>
       </c>
-      <c r="B216" s="29" t="s">
-        <v>140</v>
+      <c r="B216" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E216" s="21" t="s">
         <v>14</v>
@@ -6098,11 +6224,11 @@
       </c>
     </row>
     <row r="217" ht="36" spans="1:6">
-      <c r="A217" s="29">
+      <c r="A217" s="10">
         <v>37245</v>
       </c>
-      <c r="B217" s="29" t="s">
-        <v>197</v>
+      <c r="B217" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="C217" s="20" t="s">
         <v>12</v>
@@ -6118,11 +6244,11 @@
       </c>
     </row>
     <row r="218" ht="36" spans="1:6">
-      <c r="A218" s="29">
+      <c r="A218" s="10">
         <v>37242</v>
       </c>
-      <c r="B218" s="29" t="s">
-        <v>198</v>
+      <c r="B218" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="C218" s="20" t="s">
         <v>12</v>
@@ -6131,24 +6257,24 @@
         <v>13</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F218" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="219" ht="18" spans="1:6">
-      <c r="A219" s="29">
+      <c r="A219" s="10">
         <v>37210</v>
       </c>
-      <c r="B219" s="29" t="s">
-        <v>199</v>
+      <c r="B219" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E219" s="21" t="s">
         <v>14</v>
@@ -6158,31 +6284,31 @@
       </c>
     </row>
     <row r="220" ht="36" spans="1:6">
-      <c r="A220" s="29">
+      <c r="A220" s="10">
         <v>37209</v>
       </c>
-      <c r="B220" s="29" t="s">
-        <v>26</v>
+      <c r="B220" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="221" ht="18" spans="1:6">
-      <c r="A221" s="29">
+      <c r="A221" s="10">
         <v>37203</v>
       </c>
-      <c r="B221" s="29" t="s">
-        <v>200</v>
+      <c r="B221" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C221" s="20" t="s">
         <v>17</v>
@@ -6198,109 +6324,113 @@
       </c>
     </row>
     <row r="222" ht="18" spans="1:6">
-      <c r="A222" s="29">
+      <c r="A222" s="10">
         <v>37193</v>
       </c>
-      <c r="B222" s="29" t="s">
-        <v>194</v>
+      <c r="B222" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D222" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E222" s="21"/>
       <c r="F222" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="223" ht="36" spans="1:6">
-      <c r="A223" s="29">
+      <c r="A223" s="10">
         <v>37173</v>
       </c>
-      <c r="B223" s="29" t="s">
-        <v>121</v>
+      <c r="B223" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" ht="36" spans="1:6">
-      <c r="A224" s="29">
+      <c r="A224" s="10">
         <v>37165</v>
       </c>
-      <c r="B224" s="29" t="s">
-        <v>201</v>
+      <c r="B224" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E224" s="21"/>
       <c r="F224" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="225" ht="36" spans="1:6">
-      <c r="A225" s="29">
+      <c r="A225" s="10">
         <v>37134</v>
       </c>
-      <c r="B225" s="29" t="s">
-        <v>194</v>
+      <c r="B225" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D225" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" ht="18" spans="1:6">
+      <c r="A226" s="10">
+        <v>37107</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C226" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D226" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E226" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F226" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" ht="36" spans="1:6">
+      <c r="A227" s="10">
+        <v>37106</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C227" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E225" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F225" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226" ht="18" spans="1:6">
-      <c r="A226" s="29">
-        <v>37107</v>
-      </c>
-      <c r="B226" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D226" s="20"/>
-      <c r="E226" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F226" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" ht="36" spans="1:6">
-      <c r="A227" s="29">
-        <v>37106</v>
-      </c>
-      <c r="B227" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="D227" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E227" s="21" t="s">
         <v>14</v>
@@ -6310,17 +6440,17 @@
       </c>
     </row>
     <row r="228" ht="36" spans="1:6">
-      <c r="A228" s="29">
+      <c r="A228" s="10">
         <v>37099</v>
       </c>
-      <c r="B228" s="29" t="s">
-        <v>185</v>
+      <c r="B228" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D228" s="20" t="s">
-        <v>80</v>
+        <v>134</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>14</v>
@@ -6330,16 +6460,18 @@
       </c>
     </row>
     <row r="229" ht="18" spans="1:6">
-      <c r="A229" s="29">
+      <c r="A229" s="10">
         <v>37083</v>
       </c>
-      <c r="B229" s="29" t="s">
-        <v>75</v>
+      <c r="B229" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D229" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D229" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E229" s="21" t="s">
         <v>19</v>
       </c>
@@ -6348,97 +6480,97 @@
       </c>
     </row>
     <row r="230" ht="18" spans="1:6">
-      <c r="A230" s="29">
+      <c r="A230" s="10">
         <v>37055</v>
       </c>
-      <c r="B230" s="29" t="s">
-        <v>82</v>
+      <c r="B230" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D230" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" ht="54" spans="1:6">
+      <c r="A231" s="10">
+        <v>37048</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E231" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F231" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="232" ht="18" spans="1:6">
+      <c r="A232" s="10">
+        <v>37044</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E230" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F230" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" ht="54" spans="1:6">
-      <c r="A231" s="29">
-        <v>37048</v>
-      </c>
-      <c r="B231" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F231" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="232" ht="18" spans="1:6">
-      <c r="A232" s="29">
-        <v>37044</v>
-      </c>
-      <c r="B232" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D232" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E232" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" ht="18" spans="1:6">
+      <c r="A233" s="10">
+        <v>36999</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C233" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" ht="18" spans="1:6">
-      <c r="A233" s="29">
-        <v>36999</v>
-      </c>
-      <c r="B233" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D233" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" ht="18" spans="1:6">
+      <c r="A234" s="10">
+        <v>36971</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E233" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F233" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" ht="18" spans="1:6">
-      <c r="A234" s="29">
-        <v>36971</v>
-      </c>
-      <c r="B234" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D234" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E234" s="21" t="s">
         <v>14</v>
@@ -6448,16 +6580,18 @@
       </c>
     </row>
     <row r="235" ht="18" spans="1:6">
-      <c r="A235" s="29">
+      <c r="A235" s="10">
         <v>36931</v>
       </c>
-      <c r="B235" s="29" t="s">
-        <v>183</v>
+      <c r="B235" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D235" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E235" s="21" t="s">
         <v>19</v>
       </c>
@@ -6466,18 +6600,18 @@
       </c>
     </row>
     <row r="236" ht="36" spans="1:6">
-      <c r="A236" s="29">
+      <c r="A236" s="10">
         <v>36925</v>
       </c>
-      <c r="B236" s="29" t="s">
-        <v>205</v>
+      <c r="B236" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D236" s="31" t="s">
         <v>137</v>
       </c>
+      <c r="D236" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="E236" s="21" t="s">
         <v>14</v>
       </c>
@@ -6486,11 +6620,11 @@
       </c>
     </row>
     <row r="237" ht="18" spans="1:6">
-      <c r="A237" s="29">
+      <c r="A237" s="10">
         <v>36923</v>
       </c>
-      <c r="B237" s="29" t="s">
-        <v>101</v>
+      <c r="B237" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C237" s="20" t="s">
         <v>17</v>
@@ -6506,56 +6640,58 @@
       </c>
     </row>
     <row r="238" ht="36" spans="1:6">
-      <c r="A238" s="29">
+      <c r="A238" s="10">
         <v>36892</v>
       </c>
-      <c r="B238" s="29" t="s">
-        <v>164</v>
+      <c r="B238" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E238" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F238" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="239" ht="36" spans="1:6">
-      <c r="A239" s="29">
+      <c r="A239" s="10">
         <v>36878</v>
       </c>
-      <c r="B239" s="29" t="s">
-        <v>32</v>
+      <c r="B239" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E239" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" ht="18" spans="1:6">
-      <c r="A240" s="29">
+      <c r="A240" s="10">
         <v>36858</v>
       </c>
-      <c r="B240" s="29" t="s">
-        <v>118</v>
+      <c r="B240" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D240" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D240" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E240" s="21" t="s">
         <v>19</v>
       </c>
@@ -6564,17 +6700,17 @@
       </c>
     </row>
     <row r="241" ht="36" spans="1:6">
-      <c r="A241" s="29">
+      <c r="A241" s="10">
         <v>36853</v>
       </c>
-      <c r="B241" s="29" t="s">
-        <v>206</v>
+      <c r="B241" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E241" s="21" t="s">
         <v>14</v>
@@ -6584,16 +6720,18 @@
       </c>
     </row>
     <row r="242" ht="18" spans="1:6">
-      <c r="A242" s="29">
+      <c r="A242" s="10">
         <v>36844</v>
       </c>
-      <c r="B242" s="29" t="s">
-        <v>207</v>
+      <c r="B242" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D242" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E242" s="21" t="s">
         <v>19</v>
       </c>
@@ -6602,16 +6740,18 @@
       </c>
     </row>
     <row r="243" ht="18" spans="1:6">
-      <c r="A243" s="29">
+      <c r="A243" s="10">
         <v>36825</v>
       </c>
-      <c r="B243" s="29" t="s">
-        <v>208</v>
+      <c r="B243" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D243" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D243" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E243" s="21" t="s">
         <v>19</v>
       </c>
@@ -6620,94 +6760,98 @@
       </c>
     </row>
     <row r="244" ht="36" spans="1:6">
-      <c r="A244" s="29">
+      <c r="A244" s="10">
         <v>36816</v>
       </c>
-      <c r="B244" s="29" t="s">
+      <c r="B244" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C244" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D244" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E244" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F244" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" ht="18" spans="1:6">
+      <c r="A245" s="10">
+        <v>36793</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C245" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D245" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E245" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F245" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" ht="18" spans="1:6">
+      <c r="A246" s="10">
+        <v>36767</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D246" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E246" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F246" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" ht="36" spans="1:6">
+      <c r="A247" s="10">
+        <v>36741</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C247" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D247" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E247" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" ht="18" spans="1:6">
+      <c r="A248" s="10">
+        <v>36715</v>
+      </c>
+      <c r="B248" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C244" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D244" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E244" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F244" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="245" ht="18" spans="1:6">
-      <c r="A245" s="29">
-        <v>36793</v>
-      </c>
-      <c r="B245" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C245" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D245" s="20"/>
-      <c r="E245" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F245" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="246" ht="18" spans="1:6">
-      <c r="A246" s="29">
-        <v>36767</v>
-      </c>
-      <c r="B246" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C246" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D246" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E246" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F246" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="247" ht="36" spans="1:6">
-      <c r="A247" s="29">
-        <v>36741</v>
-      </c>
-      <c r="B247" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C247" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E247" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="248" ht="18" spans="1:6">
-      <c r="A248" s="29">
-        <v>36715</v>
-      </c>
-      <c r="B248" s="29" t="s">
-        <v>203</v>
-      </c>
       <c r="C248" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D248" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D248" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E248" s="21" t="s">
         <v>19</v>
       </c>
@@ -6716,17 +6860,17 @@
       </c>
     </row>
     <row r="249" ht="36" spans="1:6">
-      <c r="A249" s="29">
+      <c r="A249" s="10">
         <v>36711</v>
       </c>
-      <c r="B249" s="29" t="s">
-        <v>110</v>
+      <c r="B249" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E249" s="21" t="s">
         <v>14</v>
@@ -6736,16 +6880,18 @@
       </c>
     </row>
     <row r="250" ht="36" spans="1:6">
-      <c r="A250" s="29">
+      <c r="A250" s="10">
         <v>36698</v>
       </c>
-      <c r="B250" s="29" t="s">
-        <v>192</v>
+      <c r="B250" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D250" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E250" s="21" t="s">
         <v>19</v>
       </c>
@@ -6754,37 +6900,37 @@
       </c>
     </row>
     <row r="251" ht="36" spans="1:6">
-      <c r="A251" s="29">
+      <c r="A251" s="10">
         <v>36687</v>
       </c>
-      <c r="B251" s="29" t="s">
-        <v>209</v>
+      <c r="B251" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D251" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E251" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" ht="36" spans="1:6">
+      <c r="A252" s="10">
+        <v>36678</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E251" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F251" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="252" ht="36" spans="1:6">
-      <c r="A252" s="29">
-        <v>36678</v>
-      </c>
-      <c r="B252" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C252" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D252" s="31" t="s">
-        <v>137</v>
+      <c r="D252" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="E252" s="21" t="s">
         <v>14</v>
@@ -6794,16 +6940,18 @@
       </c>
     </row>
     <row r="253" ht="18" spans="1:6">
-      <c r="A253" s="29">
+      <c r="A253" s="10">
         <v>36675</v>
       </c>
-      <c r="B253" s="29" t="s">
-        <v>210</v>
+      <c r="B253" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D253" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D253" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E253" s="21" t="s">
         <v>19</v>
       </c>
@@ -6812,11 +6960,11 @@
       </c>
     </row>
     <row r="254" ht="18" spans="1:6">
-      <c r="A254" s="29">
+      <c r="A254" s="10">
         <v>36661</v>
       </c>
-      <c r="B254" s="29" t="s">
-        <v>118</v>
+      <c r="B254" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C254" s="20" t="s">
         <v>17</v>
@@ -6832,34 +6980,38 @@
       </c>
     </row>
     <row r="255" ht="38.25" customHeight="1" spans="1:6">
-      <c r="A255" s="29">
+      <c r="A255" s="10">
         <v>36641</v>
       </c>
-      <c r="B255" s="29" t="s">
-        <v>211</v>
+      <c r="B255" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D255" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D255" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E255" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F255" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="256" ht="18" spans="1:6">
-      <c r="A256" s="29">
+      <c r="A256" s="10">
         <v>36638</v>
       </c>
-      <c r="B256" s="29" t="s">
-        <v>130</v>
+      <c r="B256" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D256" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D256" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E256" s="21" t="s">
         <v>19</v>
       </c>
@@ -6868,17 +7020,17 @@
       </c>
     </row>
     <row r="257" ht="36" spans="1:6">
-      <c r="A257" s="29">
+      <c r="A257" s="10">
         <v>36635</v>
       </c>
-      <c r="B257" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C257" s="30" t="s">
-        <v>133</v>
+      <c r="B257" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C257" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E257" s="21" t="s">
         <v>14</v>
@@ -6888,16 +7040,18 @@
       </c>
     </row>
     <row r="258" ht="18" spans="1:6">
-      <c r="A258" s="29">
+      <c r="A258" s="10">
         <v>36634</v>
       </c>
-      <c r="B258" s="29" t="s">
-        <v>213</v>
+      <c r="B258" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D258" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D258" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E258" s="21" t="s">
         <v>14</v>
       </c>
@@ -6906,34 +7060,38 @@
       </c>
     </row>
     <row r="259" ht="18" spans="1:6">
-      <c r="A259" s="29">
+      <c r="A259" s="10">
         <v>36606</v>
       </c>
-      <c r="B259" s="29" t="s">
-        <v>181</v>
+      <c r="B259" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D259" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D259" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E259" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F259" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="260" ht="36" spans="1:6">
-      <c r="A260" s="29">
+      <c r="A260" s="10">
         <v>36599</v>
       </c>
-      <c r="B260" s="29" t="s">
-        <v>214</v>
+      <c r="B260" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D260" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D260" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E260" s="21" t="s">
         <v>19</v>
       </c>
@@ -6942,17 +7100,17 @@
       </c>
     </row>
     <row r="261" ht="18" spans="1:6">
-      <c r="A261" s="29">
+      <c r="A261" s="10">
         <v>36472</v>
       </c>
-      <c r="B261" s="29" t="s">
-        <v>215</v>
+      <c r="B261" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E261" s="21" t="s">
         <v>14</v>
@@ -6962,11 +7120,11 @@
       </c>
     </row>
     <row r="262" ht="18" spans="1:6">
-      <c r="A262" s="29">
+      <c r="A262" s="10">
         <v>36471</v>
       </c>
-      <c r="B262" s="29" t="s">
-        <v>216</v>
+      <c r="B262" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>17</v>
@@ -6982,11 +7140,11 @@
       </c>
     </row>
     <row r="263" ht="18" spans="1:6">
-      <c r="A263" s="29">
+      <c r="A263" s="10">
         <v>36466</v>
       </c>
-      <c r="B263" s="29" t="s">
-        <v>217</v>
+      <c r="B263" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="C263" s="20" t="s">
         <v>17</v>
@@ -7002,16 +7160,18 @@
       </c>
     </row>
     <row r="264" ht="36" spans="1:6">
-      <c r="A264" s="29">
+      <c r="A264" s="10">
         <v>36440</v>
       </c>
-      <c r="B264" s="29" t="s">
-        <v>213</v>
+      <c r="B264" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D264" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E264" s="21" t="s">
         <v>19</v>
       </c>
@@ -7020,11 +7180,11 @@
       </c>
     </row>
     <row r="265" ht="36" spans="1:6">
-      <c r="A265" s="29">
+      <c r="A265" s="10">
         <v>36435</v>
       </c>
-      <c r="B265" s="29" t="s">
-        <v>183</v>
+      <c r="B265" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C265" s="20" t="s">
         <v>12</v>
@@ -7040,16 +7200,18 @@
       </c>
     </row>
     <row r="266" ht="18" spans="1:6">
-      <c r="A266" s="29">
+      <c r="A266" s="10">
         <v>36425</v>
       </c>
-      <c r="B266" s="29" t="s">
-        <v>183</v>
+      <c r="B266" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D266" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D266" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E266" s="21" t="s">
         <v>19</v>
       </c>
@@ -7058,16 +7220,18 @@
       </c>
     </row>
     <row r="267" ht="18" spans="1:6">
-      <c r="A267" s="29">
+      <c r="A267" s="10">
         <v>36423</v>
       </c>
-      <c r="B267" s="29" t="s">
-        <v>218</v>
+      <c r="B267" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D267" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E267" s="21" t="s">
         <v>19</v>
       </c>
@@ -7076,11 +7240,11 @@
       </c>
     </row>
     <row r="268" ht="18" spans="1:6">
-      <c r="A268" s="29">
+      <c r="A268" s="10">
         <v>36422</v>
       </c>
-      <c r="B268" s="29" t="s">
-        <v>39</v>
+      <c r="B268" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C268" s="20" t="s">
         <v>17</v>
@@ -7096,16 +7260,18 @@
       </c>
     </row>
     <row r="269" ht="18" spans="1:6">
-      <c r="A269" s="29">
+      <c r="A269" s="10">
         <v>36372</v>
       </c>
-      <c r="B269" s="29" t="s">
-        <v>219</v>
+      <c r="B269" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D269" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E269" s="21" t="s">
         <v>19</v>
       </c>
@@ -7114,11 +7280,11 @@
       </c>
     </row>
     <row r="270" ht="18" spans="1:6">
-      <c r="A270" s="29">
+      <c r="A270" s="10">
         <v>36338</v>
       </c>
-      <c r="B270" s="29" t="s">
-        <v>114</v>
+      <c r="B270" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C270" s="20" t="s">
         <v>17</v>
@@ -7134,37 +7300,37 @@
       </c>
     </row>
     <row r="271" ht="18" spans="1:6">
-      <c r="A271" s="29">
+      <c r="A271" s="10">
         <v>36320</v>
       </c>
-      <c r="B271" s="29" t="s">
-        <v>183</v>
+      <c r="B271" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D271" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" ht="18" spans="1:6">
+      <c r="A272" s="10">
+        <v>36315</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C272" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E271" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F271" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" ht="18" spans="1:6">
-      <c r="A272" s="29">
-        <v>36315</v>
-      </c>
-      <c r="B272" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D272" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E272" s="21" t="s">
         <v>14</v>
@@ -7174,16 +7340,18 @@
       </c>
     </row>
     <row r="273" ht="18" spans="1:6">
-      <c r="A273" s="29">
+      <c r="A273" s="10">
         <v>36314</v>
       </c>
-      <c r="B273" s="29" t="s">
-        <v>220</v>
+      <c r="B273" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D273" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D273" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E273" s="21" t="s">
         <v>19</v>
       </c>
@@ -7192,16 +7360,18 @@
       </c>
     </row>
     <row r="274" ht="18" spans="1:6">
-      <c r="A274" s="29">
+      <c r="A274" s="10">
         <v>36312</v>
       </c>
-      <c r="B274" s="29" t="s">
-        <v>209</v>
+      <c r="B274" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D274" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D274" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E274" s="21" t="s">
         <v>19</v>
       </c>
@@ -7210,38 +7380,38 @@
       </c>
     </row>
     <row r="275" ht="36" spans="1:6">
-      <c r="A275" s="29">
+      <c r="A275" s="10">
         <v>36279</v>
       </c>
-      <c r="B275" s="29" t="s">
-        <v>26</v>
+      <c r="B275" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D275" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="276" ht="36" spans="1:6">
-      <c r="A276" s="29">
+      <c r="A276" s="10">
         <v>36325</v>
       </c>
-      <c r="B276" s="29" t="s">
-        <v>221</v>
+      <c r="B276" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D276" s="31" t="s">
         <v>137</v>
       </c>
+      <c r="D276" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="E276" s="21" t="s">
         <v>14</v>
       </c>
@@ -7250,11 +7420,11 @@
       </c>
     </row>
     <row r="277" ht="18" spans="1:6">
-      <c r="A277" s="29">
+      <c r="A277" s="10">
         <v>36245</v>
       </c>
-      <c r="B277" s="29" t="s">
-        <v>222</v>
+      <c r="B277" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="C277" s="20" t="s">
         <v>17</v>
@@ -7270,35 +7440,37 @@
       </c>
     </row>
     <row r="278" ht="18" spans="1:6">
-      <c r="A278" s="29">
+      <c r="A278" s="10">
         <v>36195</v>
       </c>
-      <c r="B278" s="29" t="s">
-        <v>223</v>
+      <c r="B278" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D278" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="D278" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E278" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" ht="18" spans="1:6">
-      <c r="A279" s="29">
+      <c r="A279" s="10">
         <v>36180</v>
       </c>
-      <c r="B279" s="29" t="s">
-        <v>82</v>
+      <c r="B279" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E279" s="21" t="s">
         <v>14</v>
@@ -7308,17 +7480,17 @@
       </c>
     </row>
     <row r="280" ht="36" spans="1:6">
-      <c r="A280" s="29">
+      <c r="A280" s="10">
         <v>36150</v>
       </c>
-      <c r="B280" s="29" t="s">
-        <v>181</v>
+      <c r="B280" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E280" s="21" t="s">
         <v>14</v>
@@ -7328,17 +7500,17 @@
       </c>
     </row>
     <row r="281" ht="18" spans="1:6">
-      <c r="A281" s="29">
+      <c r="A281" s="10">
         <v>36135</v>
       </c>
-      <c r="B281" s="29" t="s">
-        <v>184</v>
+      <c r="B281" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E281" s="21" t="s">
         <v>14</v>
@@ -7348,11 +7520,11 @@
       </c>
     </row>
     <row r="282" ht="18" spans="1:6">
-      <c r="A282" s="29">
+      <c r="A282" s="10">
         <v>36133</v>
       </c>
-      <c r="B282" s="29" t="s">
-        <v>147</v>
+      <c r="B282" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C282" s="20" t="s">
         <v>17</v>
@@ -7368,37 +7540,37 @@
       </c>
     </row>
     <row r="283" ht="18" spans="1:6">
-      <c r="A283" s="29">
+      <c r="A283" s="10">
         <v>36118</v>
       </c>
-      <c r="B283" s="29" t="s">
-        <v>225</v>
+      <c r="B283" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D283" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E283" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" ht="18" spans="1:6">
+      <c r="A284" s="10">
+        <v>36106</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C284" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F283" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="284" ht="18" spans="1:6">
-      <c r="A284" s="29">
-        <v>36106</v>
-      </c>
-      <c r="B284" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C284" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D284" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E284" s="21" t="s">
         <v>14</v>
@@ -7408,16 +7580,18 @@
       </c>
     </row>
     <row r="285" ht="18" spans="1:6">
-      <c r="A285" s="29">
+      <c r="A285" s="10">
         <v>36087</v>
       </c>
-      <c r="B285" s="29" t="s">
-        <v>76</v>
+      <c r="B285" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D285" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E285" s="21" t="s">
         <v>19</v>
       </c>
@@ -7426,17 +7600,17 @@
       </c>
     </row>
     <row r="286" ht="72" spans="1:6">
-      <c r="A286" s="29">
+      <c r="A286" s="10">
         <v>36061</v>
       </c>
-      <c r="B286" s="29" t="s">
-        <v>226</v>
+      <c r="B286" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="C286" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E286" s="21" t="s">
         <v>9</v>
@@ -7446,55 +7620,57 @@
       </c>
     </row>
     <row r="287" ht="18" spans="1:6">
-      <c r="A287" s="29">
+      <c r="A287" s="10">
         <v>36035</v>
       </c>
-      <c r="B287" s="29" t="s">
-        <v>225</v>
+      <c r="B287" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D287" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E287" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" ht="18" spans="1:6">
+      <c r="A288" s="10">
+        <v>35990</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E288" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F288" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" ht="18" spans="1:6">
+      <c r="A289" s="10">
+        <v>35958</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C289" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F287" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="288" ht="18" spans="1:6">
-      <c r="A288" s="29">
-        <v>35990</v>
-      </c>
-      <c r="B288" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D288" s="20"/>
-      <c r="E288" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F288" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="289" ht="18" spans="1:6">
-      <c r="A289" s="29">
-        <v>35958</v>
-      </c>
-      <c r="B289" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D289" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E289" s="21" t="s">
         <v>14</v>
@@ -7504,31 +7680,31 @@
       </c>
     </row>
     <row r="290" ht="36" spans="1:6">
-      <c r="A290" s="29">
+      <c r="A290" s="10">
         <v>35957</v>
       </c>
-      <c r="B290" s="29" t="s">
-        <v>161</v>
+      <c r="B290" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F290" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="291" ht="36" spans="1:6">
-      <c r="A291" s="29">
+      <c r="A291" s="10">
         <v>35935</v>
       </c>
-      <c r="B291" s="29" t="s">
-        <v>228</v>
+      <c r="B291" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C291" s="20" t="s">
         <v>12</v>
@@ -7544,11 +7720,11 @@
       </c>
     </row>
     <row r="292" ht="36" spans="1:6">
-      <c r="A292" s="29">
+      <c r="A292" s="10">
         <v>35904</v>
       </c>
-      <c r="B292" s="29" t="s">
-        <v>76</v>
+      <c r="B292" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C292" s="20" t="s">
         <v>12</v>
@@ -7564,17 +7740,17 @@
       </c>
     </row>
     <row r="293" ht="18" spans="1:6">
-      <c r="A293" s="29">
+      <c r="A293" s="10">
         <v>35891</v>
       </c>
-      <c r="B293" s="29" t="s">
-        <v>225</v>
+      <c r="B293" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E293" s="21" t="s">
         <v>14</v>
@@ -7584,16 +7760,18 @@
       </c>
     </row>
     <row r="294" ht="18" spans="1:6">
-      <c r="A294" s="29">
+      <c r="A294" s="10">
         <v>35874</v>
       </c>
-      <c r="B294" s="29" t="s">
-        <v>229</v>
+      <c r="B294" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D294" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E294" s="21" t="s">
         <v>19</v>
       </c>
@@ -7602,11 +7780,11 @@
       </c>
     </row>
     <row r="295" ht="36" spans="1:6">
-      <c r="A295" s="29">
+      <c r="A295" s="10">
         <v>35861</v>
       </c>
-      <c r="B295" s="29" t="s">
-        <v>230</v>
+      <c r="B295" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="C295" s="20" t="s">
         <v>7</v>
@@ -7622,17 +7800,17 @@
       </c>
     </row>
     <row r="296" ht="18" spans="1:6">
-      <c r="A296" s="29">
+      <c r="A296" s="10">
         <v>35858</v>
       </c>
-      <c r="B296" s="29" t="s">
-        <v>26</v>
+      <c r="B296" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E296" s="21" t="s">
         <v>19</v>
@@ -7642,11 +7820,11 @@
       </c>
     </row>
     <row r="297" ht="18" spans="1:6">
-      <c r="A297" s="29">
+      <c r="A297" s="10">
         <v>35844</v>
       </c>
-      <c r="B297" s="29" t="s">
-        <v>231</v>
+      <c r="B297" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="C297" s="20" t="s">
         <v>17</v>
@@ -7662,16 +7840,18 @@
       </c>
     </row>
     <row r="298" ht="36" spans="1:6">
-      <c r="A298" s="29">
+      <c r="A298" s="10">
         <v>35843</v>
       </c>
-      <c r="B298" s="29" t="s">
-        <v>232</v>
+      <c r="B298" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D298" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="D298" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E298" s="21" t="s">
         <v>19</v>
       </c>
@@ -7680,75 +7860,77 @@
       </c>
     </row>
     <row r="299" ht="18" spans="1:6">
-      <c r="A299" s="29">
+      <c r="A299" s="10">
         <v>35820</v>
       </c>
-      <c r="B299" s="29" t="s">
-        <v>233</v>
+      <c r="B299" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D299" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" ht="18" spans="1:6">
+      <c r="A300" s="10">
+        <v>35779</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D300" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E300" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F300" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" ht="36" spans="1:6">
+      <c r="A301" s="10">
+        <v>35764</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D301" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E301" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F301" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" ht="18" spans="1:6">
+      <c r="A302" s="10">
+        <v>35740</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C302" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E299" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F299" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="300" ht="18" spans="1:6">
-      <c r="A300" s="29">
-        <v>35779</v>
-      </c>
-      <c r="B300" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C300" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D300" s="20"/>
-      <c r="E300" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F300" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="301" ht="36" spans="1:6">
-      <c r="A301" s="29">
-        <v>35764</v>
-      </c>
-      <c r="B301" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C301" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D301" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E301" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F301" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="302" ht="18" spans="1:6">
-      <c r="A302" s="29">
-        <v>35740</v>
-      </c>
-      <c r="B302" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C302" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="D302" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E302" s="21" t="s">
         <v>14</v>
@@ -7758,54 +7940,58 @@
       </c>
     </row>
     <row r="303" ht="18" spans="1:6">
-      <c r="A303" s="29">
+      <c r="A303" s="10">
         <v>35666</v>
       </c>
-      <c r="B303" s="29" t="s">
-        <v>200</v>
+      <c r="B303" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D303" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E303" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="304" ht="18" spans="1:6">
-      <c r="A304" s="29">
+      <c r="A304" s="10">
         <v>35657</v>
       </c>
-      <c r="B304" s="29" t="s">
-        <v>170</v>
+      <c r="B304" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E304" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305" ht="18" spans="1:6">
-      <c r="A305" s="29">
+      <c r="A305" s="10">
         <v>35601</v>
       </c>
-      <c r="B305" s="29" t="s">
-        <v>234</v>
+      <c r="B305" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D305" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E305" s="21" t="s">
         <v>14</v>
       </c>
@@ -7814,11 +8000,11 @@
       </c>
     </row>
     <row r="306" ht="18" spans="1:6">
-      <c r="A306" s="29">
+      <c r="A306" s="10">
         <v>35573</v>
       </c>
-      <c r="B306" s="29" t="s">
-        <v>113</v>
+      <c r="B306" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C306" s="20" t="s">
         <v>17</v>
@@ -7834,29 +8020,31 @@
       </c>
     </row>
     <row r="307" ht="18" spans="1:6">
-      <c r="A307" s="29">
+      <c r="A307" s="10">
         <v>35536</v>
       </c>
-      <c r="B307" s="29" t="s">
-        <v>235</v>
+      <c r="B307" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D307" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E307" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308" ht="18" spans="1:6">
-      <c r="A308" s="29">
+      <c r="A308" s="10">
         <v>35508</v>
       </c>
-      <c r="B308" s="29" t="s">
-        <v>236</v>
+      <c r="B308" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="C308" s="20" t="s">
         <v>17</v>
@@ -7872,47 +8060,51 @@
       </c>
     </row>
     <row r="309" ht="18" spans="1:6">
-      <c r="A309" s="29">
+      <c r="A309" s="10">
         <v>35457</v>
       </c>
-      <c r="B309" s="29" t="s">
-        <v>203</v>
+      <c r="B309" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D309" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E309" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F309" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="310" ht="36" spans="1:6">
-      <c r="A310" s="29">
+      <c r="A310" s="10">
         <v>35441</v>
       </c>
-      <c r="B310" s="29" t="s">
-        <v>237</v>
+      <c r="B310" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D310" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E310" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F310" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" ht="18" spans="1:6">
-      <c r="A311" s="29">
+      <c r="A311" s="10">
         <v>35416</v>
       </c>
-      <c r="B311" s="29" t="s">
-        <v>238</v>
+      <c r="B311" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="C311" s="20" t="s">
         <v>17</v>
@@ -7928,17 +8120,17 @@
       </c>
     </row>
     <row r="312" ht="36" spans="1:6">
-      <c r="A312" s="29">
+      <c r="A312" s="10">
         <v>35407</v>
       </c>
-      <c r="B312" s="29" t="s">
-        <v>237</v>
+      <c r="B312" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E312" s="21" t="s">
         <v>14</v>
@@ -7948,11 +8140,11 @@
       </c>
     </row>
     <row r="313" ht="36" spans="1:6">
-      <c r="A313" s="29">
+      <c r="A313" s="10">
         <v>35378</v>
       </c>
-      <c r="B313" s="29" t="s">
-        <v>32</v>
+      <c r="B313" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C313" s="20" t="s">
         <v>7</v>
@@ -7968,34 +8160,38 @@
       </c>
     </row>
     <row r="314" ht="18" spans="1:6">
-      <c r="A314" s="29">
+      <c r="A314" s="10">
         <v>35327</v>
       </c>
-      <c r="B314" s="29" t="s">
-        <v>239</v>
+      <c r="B314" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D314" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E314" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" ht="18" spans="1:6">
-      <c r="A315" s="29">
+      <c r="A315" s="10">
         <v>35286</v>
       </c>
-      <c r="B315" s="29" t="s">
-        <v>240</v>
+      <c r="B315" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="C315" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D315" s="20"/>
+      <c r="D315" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="E315" s="21" t="s">
         <v>14</v>
       </c>
@@ -8004,17 +8200,17 @@
       </c>
     </row>
     <row r="316" ht="18" spans="1:6">
-      <c r="A316" s="29">
+      <c r="A316" s="10">
         <v>35270</v>
       </c>
-      <c r="B316" s="29" t="s">
-        <v>240</v>
+      <c r="B316" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E316" s="21" t="s">
         <v>14</v>
@@ -8024,17 +8220,17 @@
       </c>
     </row>
     <row r="317" ht="72" spans="1:6">
-      <c r="A317" s="29">
+      <c r="A317" s="10">
         <v>35262</v>
       </c>
-      <c r="B317" s="29" t="s">
-        <v>241</v>
+      <c r="B317" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C317" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E317" s="21" t="s">
         <v>9</v>
@@ -8044,11 +8240,11 @@
       </c>
     </row>
     <row r="318" ht="18" spans="1:6">
-      <c r="A318" s="29">
+      <c r="A318" s="10">
         <v>35257</v>
       </c>
-      <c r="B318" s="29" t="s">
-        <v>217</v>
+      <c r="B318" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="C318" s="20" t="s">
         <v>17</v>
@@ -8064,55 +8260,57 @@
       </c>
     </row>
     <row r="319" ht="18" spans="1:6">
-      <c r="A319" s="29">
+      <c r="A319" s="10">
         <v>35254</v>
       </c>
-      <c r="B319" s="29" t="s">
-        <v>192</v>
+      <c r="B319" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E319" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" ht="36" spans="1:6">
-      <c r="A320" s="29">
+      <c r="A320" s="10">
         <v>35187</v>
       </c>
-      <c r="B320" s="29" t="s">
-        <v>236</v>
+      <c r="B320" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D320" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E320" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F320" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="321" ht="72" spans="1:6">
-      <c r="A321" s="29">
+      <c r="A321" s="10">
         <v>35178</v>
       </c>
-      <c r="B321" s="29" t="s">
-        <v>122</v>
+      <c r="B321" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C321" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E321" s="21" t="s">
         <v>9</v>
@@ -8122,11 +8320,11 @@
       </c>
     </row>
     <row r="322" ht="36" spans="1:6">
-      <c r="A322" s="29">
+      <c r="A322" s="10">
         <v>35165</v>
       </c>
-      <c r="B322" s="29" t="s">
-        <v>242</v>
+      <c r="B322" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="C322" s="20" t="s">
         <v>7</v>
@@ -8142,11 +8340,11 @@
       </c>
     </row>
     <row r="323" ht="36" spans="1:6">
-      <c r="A323" s="29">
+      <c r="A323" s="10">
         <v>35163</v>
       </c>
-      <c r="B323" s="29" t="s">
-        <v>243</v>
+      <c r="B323" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="C323" s="20" t="s">
         <v>7</v>
@@ -8162,17 +8360,17 @@
       </c>
     </row>
     <row r="324" ht="18" spans="1:6">
-      <c r="A324" s="29">
+      <c r="A324" s="10">
         <v>35126</v>
       </c>
-      <c r="B324" s="29" t="s">
-        <v>244</v>
+      <c r="B324" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E324" s="21" t="s">
         <v>14</v>
@@ -8182,11 +8380,11 @@
       </c>
     </row>
     <row r="325" ht="18" spans="1:6">
-      <c r="A325" s="29">
+      <c r="A325" s="10">
         <v>35120</v>
       </c>
-      <c r="B325" s="29" t="s">
-        <v>237</v>
+      <c r="B325" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C325" s="20" t="s">
         <v>17</v>
@@ -8202,16 +8400,18 @@
       </c>
     </row>
     <row r="326" ht="18" spans="1:6">
-      <c r="A326" s="29">
+      <c r="A326" s="10">
         <v>35113</v>
       </c>
-      <c r="B326" s="29" t="s">
-        <v>245</v>
+      <c r="B326" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D326" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="E326" s="21" t="s">
         <v>19</v>
       </c>
@@ -8220,11 +8420,11 @@
       </c>
     </row>
     <row r="327" ht="36" spans="1:6">
-      <c r="A327" s="29">
+      <c r="A327" s="10">
         <v>35061</v>
       </c>
-      <c r="B327" s="29" t="s">
-        <v>246</v>
+      <c r="B327" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="C327" s="20" t="s">
         <v>7</v>
@@ -8240,16 +8440,18 @@
       </c>
     </row>
     <row r="328" ht="18" spans="1:6">
-      <c r="A328" s="29">
+      <c r="A328" s="10">
         <v>35034</v>
       </c>
-      <c r="B328" s="29" t="s">
-        <v>247</v>
+      <c r="B328" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D328" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="D328" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="E328" s="21" t="s">
         <v>14</v>
       </c>
@@ -8258,17 +8460,17 @@
       </c>
     </row>
     <row r="329" ht="18" spans="1:6">
-      <c r="A329" s="29">
+      <c r="A329" s="10">
         <v>35014</v>
       </c>
-      <c r="B329" s="29" t="s">
-        <v>236</v>
+      <c r="B329" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="C329" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E329" s="21" t="s">
         <v>14</v>
@@ -8278,17 +8480,17 @@
       </c>
     </row>
     <row r="330" ht="18" spans="1:6">
-      <c r="A330" s="29">
+      <c r="A330" s="10">
         <v>35013</v>
       </c>
-      <c r="B330" s="29" t="s">
-        <v>101</v>
+      <c r="B330" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C330" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E330" s="21" t="s">
         <v>14</v>
@@ -8298,11 +8500,11 @@
       </c>
     </row>
     <row r="331" s="13" customFormat="1" ht="36" spans="1:6">
-      <c r="A331" s="29">
+      <c r="A331" s="10">
         <v>35006</v>
       </c>
-      <c r="B331" s="29" t="s">
-        <v>248</v>
+      <c r="B331" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="C331" s="20" t="s">
         <v>7</v>
@@ -8328,7 +8530,7 @@
     </row>
     <row r="335" ht="18" spans="3:5">
       <c r="C335" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E335" s="21"/>
     </row>
